--- a/Prateek_LeetCode.xlsx
+++ b/Prateek_LeetCode.xlsx
@@ -8,17 +8,19 @@
     <sheet state="visible" name="Binary_Search" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Greedy" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ML" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Heap" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Hash_2ptr_Sort" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="2sum_3sum" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="SlidingWindow" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Hash_2ptr_Sort" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Math+Geometry" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Stack" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="1_to_N_Cyclic_Sort" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Linked_List" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Tree" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="Interval" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="Backtracking" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="Heap" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Stack" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Interval" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Math+Geometry" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Backtracking" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Linked_List" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="Tree" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="1_to_N_Cyclic_Sort" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="Hard" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="Quick_Practice" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="323">
   <si>
     <t>https://www.youtube.com/watch?v=aPQY__2H3tE</t>
   </si>
@@ -82,6 +84,9 @@
     <t>518. Coin Change II</t>
   </si>
   <si>
+    <t>Contrast this with "Combination Sum" Problem (contrast time complexity): Here "number" of unique combinations, in combination sum: "list of unique combinations. (Also note diff in time complexity)</t>
+  </si>
+  <si>
     <t>416. Partition Equal Subset Sum</t>
   </si>
   <si>
@@ -95,66 +100,6 @@
   </si>
   <si>
     <t>64. Minimum Path Sum</t>
-  </si>
-  <si>
-    <t>Palindromes</t>
-  </si>
-  <si>
-    <t>5. Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>647. Palindromic Substrings</t>
-  </si>
-  <si>
-    <t>LIS Subsequences</t>
-  </si>
-  <si>
-    <t>300. Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsequence problems are usually DP </t>
-  </si>
-  <si>
-    <t>LCS Subsequences</t>
-  </si>
-  <si>
-    <t>1143. Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>72. Edit Distance</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>139. Word Break</t>
-  </si>
-  <si>
-    <t>140. Word Break II</t>
-  </si>
-  <si>
-    <t>91. Decode Ways</t>
-  </si>
-  <si>
-    <t>118. Pascal's Triangle</t>
-  </si>
-  <si>
-    <t>BFS or DFS or both</t>
-  </si>
-  <si>
-    <t>200. Number of Islands</t>
-  </si>
-  <si>
-    <t>If the question can be solved by both BFS or DFS, prefer BFS</t>
-  </si>
-  <si>
-    <t>695. Max Area of Island</t>
-  </si>
-  <si>
-    <t>130. Surrounded Regions</t>
-  </si>
-  <si>
-    <t>934. Shortest Bridge</t>
   </si>
   <si>
     <r>
@@ -162,6 +107,99 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
+      <t>221. Maximal Square</t>
+    </r>
+  </si>
+  <si>
+    <t>Palindromes</t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>LIS Subsequences</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Contrast with128. Longest Consecutive Sequence (consecutive vs non consecutive)
+In one of the solutions, dp[i] = length of the longest increasing subsequence that ends with the element at index i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsequence problems are usually DP </t>
+  </si>
+  <si>
+    <t>LCS Subsequences</t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Bottom up DP:          
+if text1[i] == text2[j]:
+     dp[i][j] = 1 + dp[i + 1][j + 1]  # 1 + diagonal value
+else:
+      dp[i][j] = max(dp[i][j + 1], dp[i + 1][j])    # max of right and down</t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>Bottom up DP:         
+if word1[row] == word2[col]:
+    dp[row][col] = dp[row+1][col+1]     # 0 operations (copy from diagonal)
+else:
+    dp[row][col] = 1+ min(dp[row][col+1], dp[row+1][col], dp[row+1][col+1])    # 1 operation + min (down, right, diag)</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>139. Word Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp[i] = is the sub-string starting at index i found in dict? True or False </t>
+  </si>
+  <si>
+    <t>140. Word Break II</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>dp[i] = number of ways to decode a string of length i i.e. from index 0 to index i-1</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>BFS or DFS or both</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>If the question can be solved by both BFS or DFS, prefer BFS</t>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>417. Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
       <t>133. Clone Graph</t>
     </r>
     <r>
@@ -183,9 +221,6 @@
     </r>
   </si>
   <si>
-    <t>733. Flood Fill</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -201,9 +236,6 @@
     </r>
   </si>
   <si>
-    <t>417. Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
     <t xml:space="preserve">Only BFS  </t>
   </si>
   <si>
@@ -228,9 +260,6 @@
     <t>490. The Maze</t>
   </si>
   <si>
-    <t>1293. Shortest Path in a Grid with Obstacles Elimination</t>
-  </si>
-  <si>
     <t>Multi-Source BFS</t>
   </si>
   <si>
@@ -246,6 +275,9 @@
     <t>542. 01 Matrix</t>
   </si>
   <si>
+    <t>934. Shortest Bridge</t>
+  </si>
+  <si>
     <t>DFS (with or without backtracking) + Topological Sort</t>
   </si>
   <si>
@@ -255,7 +287,13 @@
     <t>210. Course Schedule II</t>
   </si>
   <si>
+    <t>Topological sort  - cannot be done if graph has cycles, The sequence generated by topological sort is not unique ( can have multiple topological sort sequence)</t>
+  </si>
+  <si>
     <t>694. Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
   </si>
   <si>
     <r>
@@ -263,6 +301,43 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
+      <t>212. Word Search II</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> (Trie) [For verbal follow up - what is trie, how to solve it using trie, optimizations compared to word search]</t>
+    </r>
+  </si>
+  <si>
+    <t>ADVANCED GRAPH</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>787. Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Shortest path in (+ve) weighted graph = Dijkstra</t>
+  </si>
+  <si>
+    <t>(BFS with priority queue/heap instead of regular queue)</t>
+  </si>
+  <si>
+    <t>(greedily add the neighbor in heap that satisfies the condition)</t>
+  </si>
+  <si>
+    <t>DP on graph/matrix</t>
+  </si>
+  <si>
+    <t>221. Maximal Square</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
       <t>329. Longest Increasing Path in a Matrix</t>
     </r>
     <r>
@@ -271,7 +346,10 @@
     </r>
   </si>
   <si>
-    <t>79. Word Search</t>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>323. Number of Connected Components in an Undirected Graph</t>
   </si>
   <si>
     <r>
@@ -279,25 +357,6 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>212. Word Search II</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> (Trie) [For verbal follow up - what is trie, how to solve it using trie, optimizations compared to word search]</t>
-    </r>
-  </si>
-  <si>
-    <t>Union Find</t>
-  </si>
-  <si>
-    <t>323. Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
       <t xml:space="preserve">https://www.youtube.com/watch?v=ayW5B2W9hfo </t>
     </r>
     <r>
@@ -307,55 +366,6 @@
   </si>
   <si>
     <t>684. Redundant Connection</t>
-  </si>
-  <si>
-    <t>Dijkstra</t>
-  </si>
-  <si>
-    <t>787. Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Shortest path in (+ve) weighted graph = Dijkstra</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>778. Swim in Rising Water</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">            ( or 1631. Path With Minimum Effort )</t>
-    </r>
-  </si>
-  <si>
-    <t>(BFS with priority queue/heap instead of regular queue)</t>
-  </si>
-  <si>
-    <t>(greedily add the neighbor in heap that satisfies the condition)</t>
-  </si>
-  <si>
-    <t>DP on graph/matrix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>221. Maximal Square</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> (DP + DFS)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -404,12 +414,18 @@
     <t>34. Find First and Last Position of Element in Sorted Array</t>
   </si>
   <si>
+    <t>Exception: Finding First position = initialize high with valid largest value+1 to check at the end if this changed or not. (and whether nums[high] == target) Similar for finding last value = initialize low with valid lowest value - 1 to check at the end if this changed or not.</t>
+  </si>
+  <si>
     <t>278. First Bad Version</t>
   </si>
   <si>
     <t>35. Search Insert Position</t>
   </si>
   <si>
+    <t>Initialization of right: last valid value could be after last element in nums i.e. len(nums)</t>
+  </si>
+  <si>
     <t>981. Time Based Key-Value Store</t>
   </si>
   <si>
@@ -422,6 +438,9 @@
     <t>33. Search in Rotated Sorted Array</t>
   </si>
   <si>
+    <t>question is about searching for the exact target hence before returning the answer check if the value == target</t>
+  </si>
+  <si>
     <t>81. Search in Rotated Sorted Array II</t>
   </si>
   <si>
@@ -431,25 +450,40 @@
     <t>240. Search a 2D Matrix II</t>
   </si>
   <si>
+    <t>not exactly a binary search</t>
+  </si>
+  <si>
     <t>69. Sqrt(x)</t>
   </si>
   <si>
+    <t>for x &gt;= 2, square root is always between 1 and floor(x/2)  for the given question constraint (lower int value if sqrt is not integer)</t>
+  </si>
+  <si>
     <t>50. Pow(x, n)</t>
   </si>
   <si>
     <t>162. Find Peak Element</t>
   </si>
   <si>
+    <t xml:space="preserve">Check nums[x] &gt; nums[x+1] or x is the last element </t>
+  </si>
+  <si>
     <t>852. Peak Index in a Mountain Array</t>
   </si>
   <si>
     <t>875. Koko Eating Bananas</t>
   </si>
   <si>
+    <t xml:space="preserve">search space is [1, max(piles)]    </t>
+  </si>
+  <si>
     <t>1011. Capacity To Ship Packages Within D Days</t>
   </si>
   <si>
-    <t>Minimization problem (minimize x such that condition(x) is true)
+    <t>search space is [max(weight), sum(weights)]</t>
+  </si>
+  <si>
+    <t>Minimization problem (minimize x such that condition(x) is true) [First True]
 // minimize x such that condition(x) is true
 function binarySearch(arr) {
   // decide what is the search space
@@ -469,7 +503,7 @@
 }</t>
   </si>
   <si>
-    <t>Maximization problem (maximize x such that condition(x) is true)
+    <t>Maximization problem (maximize x such that condition(x) is true) [Last True]
 // maximize x such that condition(x) is true
 function binarySearch(arr) {
   // decide what is the search space
@@ -506,6 +540,11 @@
 </t>
   </si>
   <si>
+    <t>If the question is about searching for the exact target then
+before returning the answer check if the value == target
+(usually condition here is &gt;= target)</t>
+  </si>
+  <si>
     <t>53. Maximum Subarray</t>
   </si>
   <si>
@@ -525,9 +564,6 @@
   </si>
   <si>
     <t>134. Gas Station</t>
-  </si>
-  <si>
-    <t>763. Partition Labels</t>
   </si>
   <si>
     <t>767. Reorganize String</t>
@@ -584,6 +620,9 @@
     </r>
   </si>
   <si>
+    <t>Use binary search solution</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -606,6 +645,223 @@
   </si>
   <si>
     <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Diff between dict and defaultdict:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. defaultdict will "default" a value if that key has not been set yet. If you didn't use a defaultdict you'd have to check to see if that key exists, and if it doesn't, set it to what you want.
+E.g. d = defaultdict(def_value)
+2. dict.get(key, default_value) returns default value if key is not present. 
+dict.get(key) returns None if key is not present. </t>
+    </r>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>380. Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>14. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>80. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>346. Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>75. Sort Colors</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>169. Majority Element</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>443. String Compression</t>
+  </si>
+  <si>
+    <t>359. Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>392. Is Subsequence</t>
+  </si>
+  <si>
+    <t>28. Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>953. Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Non-continguous elements</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>Hash, Sort + 2 pointers</t>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>(input is sorted - 2 ptr approach can be used)</t>
+  </si>
+  <si>
+    <t>1099. Two Sum Less Than K</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>16. 3Sum Closest</t>
+  </si>
+  <si>
+    <t># Compare abs diff between current sum and target to closest sum seen so far and target
+# If abs diff between current sum and target &lt; abs diff between closest sum seen so far and target
+# Then current total becomes the new closest sum</t>
+  </si>
+  <si>
+    <t>259. 3Sum Smaller</t>
+  </si>
+  <si>
+    <t># Let us look at an example ((2 sum smaller) nums = [1,2,3,4,8] and target=7 
+# if left points to 1 and right points to 8 then left+right &gt; target ie. 1+8 &gt; 7 =&gt; decrement right by 1
+# if left points to 1 and right points to 4 then left+right &lt; target ie. 1+4 &lt; 7 (condition satisfied)
+# No. of points possible which are less than target =&gt; [1,2], [1,3], [1,4] ie. 3 =&gt; right_index - left_index  
+# Now increment left by 1, 
+# Now still left+right &lt; 7 i.e. 2+4 &lt; 7 =&gt; [2,3], [2,4] =&gt; right_index - left index</t>
+  </si>
+  <si>
+    <t>18. 4Sum</t>
+  </si>
+  <si>
+    <t>Substring - Sliding Window</t>
+  </si>
+  <si>
+    <t>438. Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use if condition to shrink the window and adjust left ptr
+</t>
+  </si>
+  <si>
+    <t>(contiguous elements)</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>424. Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use while loop to shrink the window and adjust left ptr
+</t>
+  </si>
+  <si>
+    <t>1838. Frequency of the Most Frequent Element</t>
+  </si>
+  <si>
+    <t>159. Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Subarray - Sliding Window</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Use while loop to shrink the window and adjust left ptr</t>
+  </si>
+  <si>
+    <t>713. Subarray Product Less Than K</t>
+  </si>
+  <si>
+    <t>1004. Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Subarray - Prefix Sum (with hashmap)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>560. Subarray Sum Equals K</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> (contrast it with 209. Minimum Size Subarray Sum)</t>
+    </r>
+  </si>
+  <si>
+    <t>523. Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>When regular Sliding Window does not apply:</t>
+  </si>
+  <si>
+    <t>i) if nums in array are -ve</t>
+  </si>
+  <si>
+    <t>ii) if it is tricky to make a decision if we want to expand right or discard left (e.g. to find multiple of k)</t>
+  </si>
+  <si>
+    <t>724. Find Pivot Index</t>
+  </si>
+  <si>
+    <t>Build left and right array, and then use them to build the final array</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>849. Maximize Distance to Closest Person</t>
   </si>
   <si>
     <r>
@@ -658,7 +914,8 @@
 ii) heappop() one element = removing topmost lement to heap is log(size of heap i.e. k) [heap adjusts itself to maintain heap property]
 =&gt; heappop()  N elements = O (N log k)
 iii) heap[0] or accessing topmost elemnt in heap is O(1) 
-iv) Buiding a heap is O(N) [heapify operation] and not O(N log N) bcz the approach is different than calling heappush() N times </t>
+iv) Building a heap is O(N) [heapify operation] and not O(N log N) bcz the approach is different than calling heappush() N times 
+In Python, converting a list to a heap is done in-place, Space Complexity = O(1) for heapify operation</t>
     </r>
   </si>
   <si>
@@ -681,6 +938,9 @@
   </si>
   <si>
     <t>703. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>Maintain min heap of size k in both constructor and add function</t>
   </si>
   <si>
     <r>
@@ -717,88 +977,46 @@
     <t>373. Find K Pairs with Smallest Sums</t>
   </si>
   <si>
+    <t>BFS with min heap</t>
+  </si>
+  <si>
     <t>i) Using Heap: a) Kth smallest =&gt; Min Heap. b) Kth largest =&gt; Max Heap (opposite of unsorted array)</t>
   </si>
   <si>
     <t>378. Kth Smallest Element in a Sorted Matrix</t>
   </si>
   <si>
-    <t>ii) Using binary search</t>
+    <t>ii) Using binary search (since the array is sorted)</t>
   </si>
   <si>
     <t>658. Find K Closest Elements</t>
   </si>
   <si>
+    <t>Binary search to find left bound</t>
+  </si>
+  <si>
     <t>2 Heaps</t>
   </si>
   <si>
-    <t>Non-continguous elements</t>
-  </si>
-  <si>
-    <t>1. Two Sum</t>
-  </si>
-  <si>
-    <t>Hash, Sort + 2 pointers</t>
-  </si>
-  <si>
-    <t>167. Two Sum II - Input Array Is Sorted</t>
-  </si>
-  <si>
-    <t>(input is sorted - 2 ptr approach can be used)</t>
-  </si>
-  <si>
-    <t>1099. Two Sum Less Than K</t>
-  </si>
-  <si>
-    <t>15. 3Sum</t>
-  </si>
-  <si>
-    <t>16. 3Sum Closest</t>
-  </si>
-  <si>
-    <t>259. 3Sum Smaller</t>
-  </si>
-  <si>
-    <t>18. 4Sum</t>
-  </si>
-  <si>
-    <t>Substring - Sliding Window</t>
-  </si>
-  <si>
-    <t>438. Find All Anagrams in a String</t>
-  </si>
-  <si>
-    <t>(contiguous elements)</t>
-  </si>
-  <si>
-    <t>567. Permutation in String</t>
-  </si>
-  <si>
-    <t>424. Longest Repeating Character Replacement</t>
-  </si>
-  <si>
-    <t>1838. Frequency of the Most Frequent Element</t>
-  </si>
-  <si>
-    <t>3. Longest Substring Without Repeating Characters</t>
-  </si>
-  <si>
-    <t>159. Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Subarray - Sliding Window</t>
-  </si>
-  <si>
-    <t>209. Minimum Size Subarray Sum</t>
-  </si>
-  <si>
-    <t>713. Subarray Product Less Than K</t>
-  </si>
-  <si>
-    <t>1004. Max Consecutive Ones III</t>
-  </si>
-  <si>
-    <t>Subarray - Prefix Sum</t>
+    <t>Regular Stack</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>150. Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>921. Minimum Add to Make Parentheses Valid</t>
+  </si>
+  <si>
+    <t>1249. Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>227. Basic Calculator II</t>
+  </si>
+  <si>
+    <t>71. Simplify Path</t>
   </si>
   <si>
     <r>
@@ -806,102 +1024,74 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>560. Subarray Sum Equals K</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> (contrast it with 209. Minimum Size Subarray Sum)</t>
-    </r>
-  </si>
-  <si>
-    <t>523. Continuous Subarray Sum</t>
-  </si>
-  <si>
-    <t>724. Find Pivot Index</t>
-  </si>
-  <si>
-    <t>When regular Sliding Window does not apply:</t>
-  </si>
-  <si>
-    <t>238. Product of Array Except Self</t>
-  </si>
-  <si>
-    <t>i) if nums in array are -ve</t>
-  </si>
-  <si>
-    <t>ii) if it is tricky to make a decision if we want to expand right or discard left</t>
-  </si>
-  <si>
-    <t>121. Best Time to Buy and Sell Stock</t>
-  </si>
-  <si>
-    <t>122. Best Time to Buy and Sell Stock II</t>
-  </si>
-  <si>
-    <t>146. LRU Cache</t>
-  </si>
-  <si>
-    <t>380. Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>36. Valid Sudoku</t>
-  </si>
-  <si>
-    <t>14. Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>128. Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>26. Remove Duplicates from Sorted Array</t>
-  </si>
-  <si>
-    <t>80. Remove Duplicates from Sorted Array II</t>
-  </si>
-  <si>
-    <t>31. Next Permutation</t>
-  </si>
-  <si>
-    <t>346. Moving Average from Data Stream</t>
-  </si>
-  <si>
-    <t>88. Merge Sorted Array</t>
-  </si>
-  <si>
-    <t>75. Sort Colors</t>
-  </si>
-  <si>
-    <t>49. Group Anagrams</t>
-  </si>
-  <si>
-    <t>125. Valid Palindrome</t>
-  </si>
-  <si>
-    <t>169. Majority Element</t>
-  </si>
-  <si>
-    <t>283. Move Zeroes</t>
-  </si>
-  <si>
-    <t>443. String Compression</t>
-  </si>
-  <si>
-    <t>392. Is Subsequence</t>
-  </si>
-  <si>
-    <t>953. Verifying an Alien Dictionary</t>
-  </si>
-  <si>
-    <t>38. Count and Say</t>
-  </si>
-  <si>
-    <t>1268. Search Suggestions System</t>
-  </si>
-  <si>
-    <t>359. Logger Rate Limiter</t>
-  </si>
-  <si>
-    <t>28. Find the Index of the First Occurrence in a String</t>
+      <t>339. Nested List Weight Sum</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Stack</t>
+  </si>
+  <si>
+    <t>678. Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>Monotonic Stack</t>
+  </si>
+  <si>
+    <t>739. Daily Temperatures</t>
+  </si>
+  <si>
+    <t>i) Next Greater Element to the Right -&gt; maintain a monotonic decreasing stack</t>
+  </si>
+  <si>
+    <t>503. Next Greater Element II</t>
+  </si>
+  <si>
+    <t>ii) Next Smaller Element to the Right -&gt; maintain a monotonic increasing stack</t>
+  </si>
+  <si>
+    <t>1762. Buildings With an Ocean View</t>
+  </si>
+  <si>
+    <t>i a) Previous Greater Element to the Left -&gt; same as Next Greater Element to the Right but start from last element of array to begin (reverse order)</t>
+  </si>
+  <si>
+    <t>316. Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>ii a) Previous Smaller Element to the Left -&gt; same as Next Smaller Element to the Right but start from last element of array to begin (reverse order)</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/study-guide/2347639/A-comprehensive-guide-and-template-for-monotonic-stack-based-problems</t>
+  </si>
+  <si>
+    <t>84. Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Sort by start time</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms</t>
+  </si>
+  <si>
+    <t>253. Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>57. Insert Interval</t>
+  </si>
+  <si>
+    <t>435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>986. Interval List Intersections</t>
   </si>
   <si>
     <t>7. Reverse Integer</t>
@@ -953,237 +1143,7 @@
     <t>202. Happy Number</t>
   </si>
   <si>
-    <t>Regular Stack</t>
-  </si>
-  <si>
-    <t>20. Valid Parentheses</t>
-  </si>
-  <si>
-    <t>150. Evaluate Reverse Polish Notation</t>
-  </si>
-  <si>
-    <t>921. Minimum Add to Make Parentheses Valid</t>
-  </si>
-  <si>
-    <t>1249. Minimum Remove to Make Valid Parentheses</t>
-  </si>
-  <si>
-    <t>227. Basic Calculator II</t>
-  </si>
-  <si>
-    <t>71. Simplify Path</t>
-  </si>
-  <si>
-    <t>2 Stack</t>
-  </si>
-  <si>
-    <t>678. Valid Parenthesis String</t>
-  </si>
-  <si>
-    <t>155. Min Stack</t>
-  </si>
-  <si>
-    <t>Monotonic Stack</t>
-  </si>
-  <si>
-    <t>739. Daily Temperatures</t>
-  </si>
-  <si>
-    <t>i) Next Greater Element to the Right -&gt; maintain a monotonic decreasing stack</t>
-  </si>
-  <si>
-    <t>503. Next Greater Element II</t>
-  </si>
-  <si>
-    <t>ii) Next Smaller Element to the Right -&gt; maintain a monotonic increasing stack</t>
-  </si>
-  <si>
-    <t>1762. Buildings With an Ocean View</t>
-  </si>
-  <si>
-    <t>456. 132 Pattern</t>
-  </si>
-  <si>
-    <t>i a) Previous Greater Element to the Left -&gt; same as Next Greater Element to the Right but start from last element of array to begin (reverse order)</t>
-  </si>
-  <si>
-    <t>316. Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>ii a) Previous Smaller Element to the Left -&gt; same as Next Smaller Element to the Right but start from last element of array to begin (reverse order)</t>
-  </si>
-  <si>
-    <t>42. Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/discuss/study-guide/2347639/A-comprehensive-guide-and-template-for-monotonic-stack-based-problems</t>
-  </si>
-  <si>
-    <t>84. Largest Rectangle in Histogram</t>
-  </si>
-  <si>
-    <t>268. Missing Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,n] </t>
-  </si>
-  <si>
-    <t>163. Missing Ranges</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>287. Find the Duplicate Number</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> unsorted array: only one number that is repeated 2 or more times</t>
-    </r>
-  </si>
-  <si>
-    <t>fast and slow pointers</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>442. Find All Duplicates in an Array</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> unsorted array: multiple numbers that can only exist 2 times</t>
-    </r>
-  </si>
-  <si>
-    <t>negation at index abs(num) -1 , double negation i.e. +ve means the element was seen twice</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>1539. Kth Missing Positive Number</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">  - sorted array with only +ve numbers</t>
-    </r>
-  </si>
-  <si>
-    <t>binary search</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>41. First Missing Positive</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> (cyclic sort) - unsorted array with -ve numbers as well</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TLiWieBQwUs</t>
-  </si>
-  <si>
-    <t>206. Reverse Linked List</t>
-  </si>
-  <si>
-    <t>141. Linked List Cycle</t>
-  </si>
-  <si>
-    <t>19. Remove Nth Node From End of List</t>
-  </si>
-  <si>
-    <t>21. Merge Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>23. Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>2. Add Two Numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> (similar to 415. Add Strings)</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Check if root exists
-2. Always check whether left subtree or right sub tree exists
-# Definition for a binary tree node.
-# class TreeNode:
-#     def __init__(self, val=0, left=None, right=None):
-#         self.val = val
-#         self.left = left
-#         self.right = right</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>102. Binary Tree Level Order Traversal</t>
-  </si>
-  <si>
-    <t>199. Binary Tree Right Side View</t>
-  </si>
-  <si>
-    <t>98. Validate Binary Search Tree</t>
-  </si>
-  <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>230. Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
-  </si>
-  <si>
-    <t>100. Same Tree</t>
-  </si>
-  <si>
-    <t>572. Subtree of Another Tree</t>
-  </si>
-  <si>
-    <t>Sort by start time</t>
-  </si>
-  <si>
-    <t>252. Meeting Rooms</t>
-  </si>
-  <si>
-    <t>253. Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>56. Merge Intervals</t>
-  </si>
-  <si>
-    <t>57. Insert Interval</t>
-  </si>
-  <si>
-    <t>435. Non-overlapping Intervals</t>
-  </si>
-  <si>
-    <t>986. Interval List Intersections</t>
+    <t>43. Multiply Strings</t>
   </si>
   <si>
     <r>
@@ -1249,17 +1209,337 @@
     <t>46. Permutations</t>
   </si>
   <si>
-    <t xml:space="preserve">Permuation = order matters i.e. [1,2] is not the same as  [2,1] </t>
+    <t xml:space="preserve">Permutation = order matters i.e. [1,2] is not the same as  [2,1] </t>
   </si>
   <si>
     <t>47. Permutations II</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Dummy Node</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Time Complexity = N log k 
+where N = total number of nodes in all lists combined, k = number of lists</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>2. Add Two Numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> (similar to 415. Add Strings)</t>
+    </r>
+  </si>
+  <si>
+    <t>If traversing Linked List like:
+i) fast = fast.next.next then 
+while loop should have this cond: while fast.next i.e. fast.next.next could be null in the worst case
+ii) if traversing like fast = fast.next then
+while loop should have this cond: while fast i.e. fast.next could be null in worst case</t>
+  </si>
+  <si>
+    <t>odd and even length linked list</t>
+  </si>
+  <si>
+    <t>If one list is shorter than the other</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>138. Copy List with Random Pointer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>287. Find the Duplicate Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>146. LRU Cache</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Check if root exists
+2. Always check whether left subtree or right sub tree exists
+ before putting in queue or stack (not required while traversing)
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+3 ways of traversing: 
+1. queue (BFS, FIFO) [always prefer it if possible)
+2. put root value in node and move using node = node.right/left
+3. stack (DFS, LIFO)</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>199. Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>543. Diameter of Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <t>BST: Left &lt; Root &lt; Right (value-wise)
+Inorder traversal of BST = Sorted Array</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1,n] </t>
+  </si>
+  <si>
+    <t>163. Missing Ranges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>287. Find the Duplicate Number</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> unsorted array: only one number that is repeated 2 or more times</t>
+    </r>
+  </si>
+  <si>
+    <t>fast and slow pointers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>442. Find All Duplicates in an Array</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> unsorted array: multiple numbers that can only exist 2 times</t>
+    </r>
+  </si>
+  <si>
+    <t>negation at index abs(num) -1 , double negation i.e. +ve means the element was seen twice</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1539. Kth Missing Positive Number</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">  - sorted array with only +ve numbers</t>
+    </r>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>41. First Missing Positive</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> (cyclic sort) - unsorted array with -ve numbers as well</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TLiWieBQwUs</t>
+  </si>
+  <si>
+    <t>1235. Maximum Profit in Job Scheduling</t>
+  </si>
+  <si>
+    <t>269. Alien Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>773. Sliding Puzzle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>84. Largest Rectangle in Histogram</t>
+    </r>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>140. Word Break II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>42. Trapping Rain Water</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>23. Merge k Sorted Lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>295. Find Median from Data Stream</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>127. Word Ladder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>41. First Missing Positive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>329. Longest Increasing Path in a Matrix</t>
+    </r>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>239. Sliding Window Maximum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>212. Word Search II</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1317,6 +1597,10 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -1345,7 +1629,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1354,6 +1638,10 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
@@ -1384,7 +1672,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1419,21 +1707,27 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1442,17 +1736,17 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1460,14 +1754,17 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,6 +1803,14 @@
 </file>
 
 <file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1841,10 +2146,13 @@
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -1852,180 +2160,200 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="23">
+      <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="10" t="s">
+    </row>
+    <row r="26">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
     <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B35" s="9"/>
     </row>
     <row r="36">
-      <c r="B36" s="13" t="s">
-        <v>32</v>
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="8"/>
+      <c r="B37" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="B38" s="8"/>
     </row>
     <row r="39">
       <c r="B39" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="9"/>
     </row>
     <row r="46">
       <c r="A46" s="16"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
     </row>
     <row r="47">
-      <c r="A47" s="16"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2042,21 +2370,246 @@
     <hyperlink r:id="rId11" ref="B19"/>
     <hyperlink r:id="rId12" ref="B20"/>
     <hyperlink r:id="rId13" ref="B21"/>
-    <hyperlink r:id="rId14" ref="B24"/>
+    <hyperlink r:id="rId14" ref="B23"/>
     <hyperlink r:id="rId15" ref="B25"/>
-    <hyperlink r:id="rId16" ref="B28"/>
-    <hyperlink r:id="rId17" ref="B31"/>
+    <hyperlink r:id="rId16" ref="B26"/>
+    <hyperlink r:id="rId17" ref="B29"/>
     <hyperlink r:id="rId18" ref="B32"/>
-    <hyperlink r:id="rId19" ref="B35"/>
+    <hyperlink r:id="rId19" ref="B33"/>
     <hyperlink r:id="rId20" ref="B36"/>
-    <hyperlink r:id="rId21" ref="B38"/>
+    <hyperlink r:id="rId21" ref="B37"/>
     <hyperlink r:id="rId22" ref="B39"/>
+    <hyperlink r:id="rId23" ref="B40"/>
   </hyperlinks>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.5"/>
+    <col customWidth="1" min="2" max="2" width="62.63"/>
+    <col customWidth="1" min="3" max="3" width="75.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="26"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B9"/>
+    <hyperlink r:id="rId8" ref="B11"/>
+    <hyperlink r:id="rId9" ref="B12"/>
+    <hyperlink r:id="rId10" ref="B18"/>
+    <hyperlink r:id="rId11" ref="B19"/>
+    <hyperlink r:id="rId12" ref="B20"/>
+    <hyperlink r:id="rId13" ref="B22"/>
+    <hyperlink r:id="rId14" ref="B23"/>
+    <hyperlink r:id="rId15" ref="A24"/>
+    <hyperlink r:id="rId16" ref="B24"/>
+  </hyperlinks>
+  <drawing r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.75"/>
+    <col customWidth="1" min="2" max="2" width="63.38"/>
+    <col customWidth="1" min="3" max="3" width="63.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink r:id="rId4" ref="B6"/>
+    <hyperlink r:id="rId5" ref="B8"/>
+    <hyperlink r:id="rId6" ref="B9"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2084,12 +2637,12 @@
     </row>
     <row r="2">
       <c r="B2" s="10" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="7" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
@@ -2097,57 +2650,62 @@
     </row>
     <row r="5">
       <c r="B5" s="7" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="7" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="10" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="10" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="10" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>198</v>
+      <c r="B15" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
-        <v>201</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="10" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2165,12 +2723,13 @@
     <hyperlink r:id="rId11" ref="B17"/>
     <hyperlink r:id="rId12" ref="B19"/>
     <hyperlink r:id="rId13" ref="B21"/>
+    <hyperlink r:id="rId14" ref="B23"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2180,9 +2739,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.5"/>
-    <col customWidth="1" min="2" max="2" width="62.63"/>
-    <col customWidth="1" min="3" max="3" width="75.75"/>
+    <col customWidth="1" min="1" max="1" width="66.13"/>
+    <col customWidth="1" min="2" max="2" width="63.5"/>
+    <col customWidth="1" min="3" max="3" width="75.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2197,129 +2756,317 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>203</v>
+      <c r="A2" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="7" t="s">
-        <v>205</v>
+      <c r="B4" s="10" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="10" t="s">
-        <v>207</v>
+      <c r="B5" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>208</v>
+      <c r="B7" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24"/>
-      <c r="B20" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
+      <c r="B10" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" ht="39.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A18"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B10"/>
-    <hyperlink r:id="rId8" ref="B11"/>
-    <hyperlink r:id="rId9" ref="B17"/>
-    <hyperlink r:id="rId10" ref="B18"/>
-    <hyperlink r:id="rId11" ref="B19"/>
-    <hyperlink r:id="rId12" ref="B20"/>
-    <hyperlink r:id="rId13" ref="B21"/>
-    <hyperlink r:id="rId14" ref="B22"/>
-    <hyperlink r:id="rId15" ref="A23"/>
-    <hyperlink r:id="rId16" ref="B23"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B10"/>
+    <hyperlink r:id="rId9" ref="B13"/>
+    <hyperlink r:id="rId10" ref="B14"/>
+    <hyperlink r:id="rId11" ref="B16"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.0"/>
+    <col customWidth="1" min="2" max="2" width="75.25"/>
+    <col customWidth="1" min="3" max="3" width="63.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A14:A18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink r:id="rId4" ref="B8"/>
+    <hyperlink r:id="rId5" ref="B9"/>
+    <hyperlink r:id="rId6" ref="B12"/>
+    <hyperlink r:id="rId7" ref="B22"/>
+    <hyperlink r:id="rId8" ref="B24"/>
+    <hyperlink r:id="rId9" ref="B26"/>
+  </hyperlinks>
+  <drawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="40.25"/>
+    <col customWidth="1" min="2" max="2" width="63.63"/>
+    <col customWidth="1" min="3" max="3" width="51.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink r:id="rId4" ref="B6"/>
+    <hyperlink r:id="rId5" ref="B8"/>
+    <hyperlink r:id="rId6" ref="B9"/>
+    <hyperlink r:id="rId7" ref="B10"/>
+    <hyperlink r:id="rId8" ref="B12"/>
+    <hyperlink r:id="rId9" ref="B14"/>
+    <hyperlink r:id="rId10" ref="B15"/>
+  </hyperlinks>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2347,47 +3094,47 @@
     </row>
     <row r="2">
       <c r="B2" s="7" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="s">
-        <v>226</v>
+      <c r="A3" s="30" t="s">
+        <v>298</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>229</v>
+        <v>300</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>231</v>
+        <v>302</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>233</v>
+        <v>304</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2417,9 +3164,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.0"/>
-    <col customWidth="1" min="2" max="2" width="75.25"/>
-    <col customWidth="1" min="3" max="3" width="63.0"/>
+    <col customWidth="1" min="1" max="1" width="28.63"/>
+    <col customWidth="1" min="2" max="2" width="64.38"/>
+    <col customWidth="1" min="3" max="3" width="38.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2432,52 +3179,154 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="3">
-      <c r="B3" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="10" t="s">
-        <v>237</v>
+      <c r="B3" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>239</v>
+      <c r="B5" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="10" t="s">
-        <v>240</v>
+      <c r="B9" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="10" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="s">
-        <v>241</v>
-      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B12"/>
+    <hyperlink r:id="rId2" ref="B5"/>
+    <hyperlink r:id="rId3" ref="B7"/>
+    <hyperlink r:id="rId4" ref="B9"/>
+    <hyperlink r:id="rId5" ref="B11"/>
+    <hyperlink r:id="rId6" ref="B13"/>
+    <hyperlink r:id="rId7" ref="B15"/>
+    <hyperlink r:id="rId8" ref="B17"/>
+    <hyperlink r:id="rId9" ref="B19"/>
+    <hyperlink r:id="rId10" ref="B21"/>
+    <hyperlink r:id="rId11" ref="B23"/>
+    <hyperlink r:id="rId12" ref="B25"/>
+    <hyperlink r:id="rId13" ref="B27"/>
+    <hyperlink r:id="rId14" ref="B29"/>
+    <hyperlink r:id="rId15" ref="B31"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2487,274 +3336,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.88"/>
-    <col customWidth="1" min="2" max="2" width="63.63"/>
-    <col customWidth="1" min="3" max="3" width="51.13"/>
+    <col customWidth="1" min="1" max="1" width="101.38"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>252</v>
-      </c>
+      <c r="A14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="B6"/>
-    <hyperlink r:id="rId5" ref="B7"/>
-    <hyperlink r:id="rId6" ref="B9"/>
-    <hyperlink r:id="rId7" ref="B10"/>
-    <hyperlink r:id="rId8" ref="B12"/>
-    <hyperlink r:id="rId9" ref="B14"/>
-    <hyperlink r:id="rId10" ref="B15"/>
-  </hyperlinks>
-  <drawing r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="37.75"/>
-    <col customWidth="1" min="2" max="2" width="63.38"/>
-    <col customWidth="1" min="3" max="3" width="63.88"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="B6"/>
-    <hyperlink r:id="rId5" ref="B8"/>
-    <hyperlink r:id="rId6" ref="B9"/>
-  </hyperlinks>
-  <drawing r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="66.13"/>
-    <col customWidth="1" min="2" max="2" width="63.5"/>
-    <col customWidth="1" min="3" max="3" width="75.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" ht="39.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A18"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="B4"/>
-    <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B10"/>
-    <hyperlink r:id="rId9" ref="B13"/>
-    <hyperlink r:id="rId10" ref="B14"/>
-  </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2769,7 +3358,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="49.88"/>
-    <col customWidth="1" min="2" max="2" width="103.75"/>
+    <col customWidth="1" min="2" max="2" width="83.75"/>
     <col customWidth="1" min="3" max="3" width="76.25"/>
   </cols>
   <sheetData>
@@ -2785,297 +3374,261 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>35</v>
+      <c r="A2" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
+      <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="s">
-        <v>44</v>
+      <c r="A8" s="19"/>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>47</v>
+      <c r="A13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>48</v>
+      <c r="A14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="9"/>
+      <c r="A19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>61</v>
+      <c r="B26" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B28" s="20"/>
     </row>
     <row r="29">
-      <c r="B29" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="10" t="s">
-        <v>65</v>
+      <c r="B29" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="A31" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="9"/>
     </row>
     <row r="36">
-      <c r="B36" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A36" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="A39" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="s">
-        <v>76</v>
+      <c r="B40" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
+      <c r="B44" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3086,31 +3639,28 @@
     <hyperlink r:id="rId5" ref="B6"/>
     <hyperlink r:id="rId6" ref="B7"/>
     <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B13"/>
-    <hyperlink r:id="rId11" ref="B14"/>
-    <hyperlink r:id="rId12" ref="B15"/>
-    <hyperlink r:id="rId13" ref="B16"/>
-    <hyperlink r:id="rId14" ref="B17"/>
-    <hyperlink r:id="rId15" ref="B18"/>
-    <hyperlink r:id="rId16" ref="B21"/>
-    <hyperlink r:id="rId17" ref="B22"/>
-    <hyperlink r:id="rId18" ref="B23"/>
+    <hyperlink r:id="rId8" ref="B12"/>
+    <hyperlink r:id="rId9" ref="B13"/>
+    <hyperlink r:id="rId10" ref="B14"/>
+    <hyperlink r:id="rId11" ref="B15"/>
+    <hyperlink r:id="rId12" ref="B16"/>
+    <hyperlink r:id="rId13" ref="B19"/>
+    <hyperlink r:id="rId14" ref="B20"/>
+    <hyperlink r:id="rId15" ref="B21"/>
+    <hyperlink r:id="rId16" ref="B22"/>
+    <hyperlink r:id="rId17" ref="B24"/>
+    <hyperlink r:id="rId18" ref="B25"/>
     <hyperlink r:id="rId19" ref="B26"/>
     <hyperlink r:id="rId20" ref="B27"/>
-    <hyperlink r:id="rId21" ref="B28"/>
-    <hyperlink r:id="rId22" ref="B29"/>
-    <hyperlink r:id="rId23" ref="B30"/>
-    <hyperlink r:id="rId24" ref="B32"/>
-    <hyperlink r:id="rId25" ref="B35"/>
-    <hyperlink r:id="rId26" ref="C35"/>
-    <hyperlink r:id="rId27" ref="B36"/>
-    <hyperlink r:id="rId28" ref="B39"/>
-    <hyperlink r:id="rId29" ref="B40"/>
-    <hyperlink r:id="rId30" ref="B45"/>
+    <hyperlink r:id="rId21" ref="B29"/>
+    <hyperlink r:id="rId22" ref="B33"/>
+    <hyperlink r:id="rId23" ref="B39"/>
+    <hyperlink r:id="rId24" ref="B40"/>
+    <hyperlink r:id="rId25" ref="B43"/>
+    <hyperlink r:id="rId26" ref="C43"/>
+    <hyperlink r:id="rId27" ref="B44"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -3141,109 +3691,138 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>79</v>
+      <c r="A2" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="10" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="10" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="10" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="s">
-        <v>96</v>
+      <c r="A26" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>97</v>
+      <c r="A28" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="s">
-        <v>98</v>
+      <c r="A29" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="s">
-        <v>99</v>
+      <c r="A30" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3301,12 +3880,12 @@
     </row>
     <row r="2">
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -3314,47 +3893,42 @@
     </row>
     <row r="5">
       <c r="B5" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="10" t="s">
-        <v>104</v>
+      <c r="B7" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="10" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3366,12 +3940,11 @@
     <hyperlink r:id="rId5" ref="B7"/>
     <hyperlink r:id="rId6" ref="B9"/>
     <hyperlink r:id="rId7" ref="B11"/>
-    <hyperlink r:id="rId8" ref="B13"/>
-    <hyperlink r:id="rId9" ref="B15"/>
-    <hyperlink r:id="rId10" ref="B17"/>
-    <hyperlink r:id="rId11" ref="B19"/>
+    <hyperlink r:id="rId8" ref="B14"/>
+    <hyperlink r:id="rId9" ref="B16"/>
+    <hyperlink r:id="rId10" ref="B18"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3403,37 +3976,40 @@
     </row>
     <row r="2">
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="10" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="10" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3460,113 +4036,172 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="79.0"/>
-    <col customWidth="1" min="2" max="2" width="66.0"/>
-    <col customWidth="1" min="3" max="3" width="63.0"/>
+    <col customWidth="1" min="1" max="1" width="38.0"/>
+    <col customWidth="1" min="2" max="2" width="75.75"/>
+    <col customWidth="1" min="3" max="3" width="63.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+      <c r="A2" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>123</v>
+      <c r="B4" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" ht="45.75" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="B12" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>117</v>
+      <c r="B14" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B5"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
     <hyperlink r:id="rId3" ref="B6"/>
     <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B11"/>
+    <hyperlink r:id="rId5" ref="B8"/>
+    <hyperlink r:id="rId6" ref="B10"/>
     <hyperlink r:id="rId7" ref="B12"/>
     <hyperlink r:id="rId8" ref="B14"/>
-    <hyperlink r:id="rId9" ref="B18"/>
+    <hyperlink r:id="rId9" ref="B16"/>
+    <hyperlink r:id="rId10" ref="B17"/>
+    <hyperlink r:id="rId11" ref="B19"/>
+    <hyperlink r:id="rId12" ref="B21"/>
+    <hyperlink r:id="rId13" ref="B23"/>
+    <hyperlink r:id="rId14" ref="B24"/>
+    <hyperlink r:id="rId15" ref="B26"/>
+    <hyperlink r:id="rId16" ref="B28"/>
+    <hyperlink r:id="rId17" ref="B30"/>
+    <hyperlink r:id="rId18" ref="B32"/>
+    <hyperlink r:id="rId19" ref="B34"/>
+    <hyperlink r:id="rId20" ref="B37"/>
+    <hyperlink r:id="rId21" ref="B38"/>
+    <hyperlink r:id="rId22" ref="B39"/>
+    <hyperlink r:id="rId23" ref="B40"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -3582,7 +4217,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="37.75"/>
     <col customWidth="1" min="2" max="2" width="63.5"/>
-    <col customWidth="1" min="3" max="3" width="62.5"/>
+    <col customWidth="1" min="3" max="3" width="75.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3597,47 +4232,53 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>135</v>
+      <c r="A2" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>137</v>
+      <c r="A3" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>139</v>
+      <c r="A4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="10" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3682,124 +4323,149 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>147</v>
+      <c r="A3" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="10" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>154</v>
-      </c>
+      <c r="A12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>155</v>
+      <c r="A13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="B14" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>158</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="11"/>
+      <c r="A20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="B21" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>162</v>
+      <c r="A22" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>163</v>
+      <c r="A23" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>164</v>
+      <c r="A24" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C26:C27"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="B6"/>
-    <hyperlink r:id="rId5" ref="B8"/>
-    <hyperlink r:id="rId6" ref="B9"/>
-    <hyperlink r:id="rId7" ref="B12"/>
-    <hyperlink r:id="rId8" ref="B13"/>
-    <hyperlink r:id="rId9" ref="B14"/>
-    <hyperlink r:id="rId10" ref="B19"/>
-    <hyperlink r:id="rId11" ref="B20"/>
-    <hyperlink r:id="rId12" ref="B21"/>
-    <hyperlink r:id="rId13" ref="B22"/>
+    <hyperlink r:id="rId4" ref="B8"/>
+    <hyperlink r:id="rId5" ref="B9"/>
+    <hyperlink r:id="rId6" ref="B10"/>
+    <hyperlink r:id="rId7" ref="B13"/>
+    <hyperlink r:id="rId8" ref="B14"/>
+    <hyperlink r:id="rId9" ref="B15"/>
+    <hyperlink r:id="rId10" ref="B20"/>
+    <hyperlink r:id="rId11" ref="B21"/>
+    <hyperlink r:id="rId12" ref="B26"/>
+    <hyperlink r:id="rId13" ref="B27"/>
+    <hyperlink r:id="rId14" ref="B28"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3813,169 +4479,124 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.0"/>
-    <col customWidth="1" min="2" max="2" width="75.75"/>
-    <col customWidth="1" min="3" max="3" width="63.13"/>
+    <col customWidth="1" min="1" max="1" width="79.0"/>
+    <col customWidth="1" min="2" max="2" width="66.0"/>
+    <col customWidth="1" min="3" max="3" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="10" t="s">
-        <v>165</v>
-      </c>
+      <c r="A3" s="13"/>
     </row>
     <row r="4">
-      <c r="B4" s="10" t="s">
-        <v>166</v>
+      <c r="A4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="10" t="s">
-        <v>167</v>
+      <c r="A6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="7" t="s">
-        <v>168</v>
+        <v>201</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="10" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>173</v>
+      <c r="A11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="7" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink r:id="rId2" ref="B5"/>
     <hyperlink r:id="rId3" ref="B6"/>
     <hyperlink r:id="rId4" ref="B7"/>
     <hyperlink r:id="rId5" ref="B9"/>
     <hyperlink r:id="rId6" ref="B11"/>
-    <hyperlink r:id="rId7" ref="B13"/>
-    <hyperlink r:id="rId8" ref="B15"/>
-    <hyperlink r:id="rId9" ref="B16"/>
-    <hyperlink r:id="rId10" ref="B18"/>
-    <hyperlink r:id="rId11" ref="B20"/>
-    <hyperlink r:id="rId12" ref="B22"/>
-    <hyperlink r:id="rId13" ref="B23"/>
-    <hyperlink r:id="rId14" ref="B25"/>
-    <hyperlink r:id="rId15" ref="B27"/>
-    <hyperlink r:id="rId16" ref="B29"/>
-    <hyperlink r:id="rId17" ref="B31"/>
-    <hyperlink r:id="rId18" ref="B33"/>
-    <hyperlink r:id="rId19" ref="B35"/>
-    <hyperlink r:id="rId20" ref="B37"/>
-    <hyperlink r:id="rId21" ref="B39"/>
-    <hyperlink r:id="rId22" ref="B41"/>
-    <hyperlink r:id="rId23" ref="B43"/>
-    <hyperlink r:id="rId24" ref="B45"/>
+    <hyperlink r:id="rId7" ref="B12"/>
+    <hyperlink r:id="rId8" ref="B14"/>
+    <hyperlink r:id="rId9" ref="B18"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>